--- a/10/10주차 정렬 1 알고리즘 수정.xlsx
+++ b/10/10주차 정렬 1 알고리즘 수정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minseo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\자료구조\code\10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1066B1B8-2CBF-3141-AE0C-B4AE7F44569A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E4505-E062-47C1-8AB7-1C0F1D6A3604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bit Operator2" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="160">
   <si>
     <t>버블 정렬 (Bubble Sort)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -844,6 +844,10 @@
 print(f"실행 싯간: {(end_time - start_time) * 1000:.7f} milliseconds")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1466,6 +1470,28 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1496,36 +1522,14 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13204,7 +13208,7 @@
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="2" width="8.83203125" style="16"/>
     <col min="3" max="5" width="7.6640625" style="16" customWidth="1"/>
@@ -13213,30 +13217,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
     </row>
     <row r="3" spans="1:22">
       <c r="B3" s="17"/>
@@ -13283,7 +13287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="21" thickBot="1">
+    <row r="4" spans="1:22" ht="21.5" thickBot="1">
       <c r="B4" s="19" t="s">
         <v>28</v>
       </c>
@@ -13396,11 +13400,11 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="30">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
       <c r="D8" s="16" t="s">
         <v>38</v>
       </c>
@@ -13422,15 +13426,15 @@
       <c r="M8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71" t="s">
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="71" t="s">
+      <c r="R8" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S8" s="71" t="s">
+      <c r="S8" s="61" t="s">
         <v>39</v>
       </c>
       <c r="T8" s="25" t="s">
@@ -13449,13 +13453,13 @@
       <c r="J9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="72" t="s">
+      <c r="O9" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
       <c r="T9" s="25" t="s">
         <v>48</v>
       </c>
@@ -13464,7 +13468,7 @@
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
-      <c r="R10" s="73"/>
+      <c r="R10" s="62"/>
       <c r="S10" s="31"/>
     </row>
     <row r="11" spans="1:22">
@@ -13489,17 +13493,17 @@
       <c r="M11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="71"/>
-      <c r="P11" s="71" t="s">
+      <c r="O11" s="61"/>
+      <c r="P11" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="71" t="s">
+      <c r="Q11" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="71" t="s">
+      <c r="R11" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S11" s="71" t="s">
+      <c r="S11" s="61" t="s">
         <v>39</v>
       </c>
       <c r="T11" s="25" t="s">
@@ -13520,13 +13524,13 @@
       <c r="J12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="72" t="s">
+      <c r="O12" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
       <c r="T12" s="25" t="s">
         <v>48</v>
       </c>
@@ -13560,19 +13564,19 @@
       <c r="M14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O14" s="71" t="s">
+      <c r="O14" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="71" t="s">
+      <c r="P14" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="71" t="s">
+      <c r="Q14" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="R14" s="71" t="s">
+      <c r="R14" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S14" s="71" t="s">
+      <c r="S14" s="61" t="s">
         <v>39</v>
       </c>
       <c r="T14" s="25" t="s">
@@ -13595,13 +13599,13 @@
       <c r="J15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="72" t="s">
+      <c r="O15" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
       <c r="T15" s="25" t="s">
         <v>48</v>
       </c>
@@ -13614,11 +13618,11 @@
       <c r="S16" s="31"/>
     </row>
     <row r="17" spans="1:20" ht="30">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="16" t="s">
         <v>52</v>
       </c>
@@ -13640,15 +13644,15 @@
       <c r="M17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71" t="s">
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="R17" s="71" t="s">
+      <c r="R17" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="S17" s="71" t="s">
+      <c r="S17" s="61" t="s">
         <v>41</v>
       </c>
       <c r="T17" s="25" t="s">
@@ -13667,13 +13671,13 @@
       <c r="J18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O18" s="72" t="s">
+      <c r="O18" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
       <c r="T18" s="25" t="s">
         <v>48</v>
       </c>
@@ -13682,7 +13686,7 @@
       <c r="O19" s="31"/>
       <c r="P19" s="31"/>
       <c r="Q19" s="31"/>
-      <c r="R19" s="73"/>
+      <c r="R19" s="62"/>
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:20">
@@ -13707,13 +13711,13 @@
       <c r="M20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71" t="s">
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="71" t="s">
+      <c r="S20" s="61" t="s">
         <v>39</v>
       </c>
       <c r="T20" s="25" t="s">
@@ -13730,18 +13734,21 @@
       <c r="J21" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="O21" s="72" t="s">
+      <c r="O21" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
       <c r="T21" s="25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:20">
+      <c r="N22" s="16" t="s">
+        <v>159</v>
+      </c>
       <c r="O22" s="31"/>
       <c r="P22" s="31"/>
       <c r="Q22" s="31"/>
@@ -13770,11 +13777,11 @@
       <c r="M23" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
       <c r="T23" s="25" t="s">
         <v>47</v>
       </c>
@@ -13785,11 +13792,11 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
       <c r="T24" s="25" t="s">
         <v>48</v>
       </c>
@@ -13816,11 +13823,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="5" width="9.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.1640625" customWidth="1"/>
@@ -13828,23 +13835,23 @@
     <col min="11" max="11" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:12" ht="21">
+      <c r="A1" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-    </row>
-    <row r="2" spans="1:12" ht="20">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+    </row>
+    <row r="2" spans="1:12" ht="21">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
@@ -13887,7 +13894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20">
+    <row r="4" spans="1:12" ht="21">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -13956,7 +13963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20">
+    <row r="12" spans="1:12" ht="21">
       <c r="A12" s="5">
         <v>0</v>
       </c>
@@ -14025,7 +14032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="20">
+    <row r="20" spans="1:12" ht="21">
       <c r="A20" s="5">
         <v>0</v>
       </c>
@@ -14094,7 +14101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20">
+    <row r="28" spans="1:12" ht="21">
       <c r="A28" s="5">
         <v>0</v>
       </c>
@@ -14142,30 +14149,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="20">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:12" ht="21">
+      <c r="A1" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-    </row>
-    <row r="2" spans="1:12" ht="18" thickBot="1"/>
-    <row r="3" spans="1:12" ht="21" thickBot="1">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+    </row>
+    <row r="2" spans="1:12" ht="17.5" thickBot="1"/>
+    <row r="3" spans="1:12" ht="18" thickBot="1">
       <c r="A3" s="48">
         <v>0</v>
       </c>
@@ -14181,16 +14188,16 @@
       <c r="E3" s="48">
         <v>4</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-    </row>
-    <row r="4" spans="1:12" ht="29" thickTop="1" thickBot="1">
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+    </row>
+    <row r="4" spans="1:12" ht="24" thickTop="1" thickBot="1">
       <c r="A4" s="49">
         <v>2</v>
       </c>
@@ -14206,22 +14213,22 @@
       <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" thickBot="1">
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-    </row>
-    <row r="6" spans="1:12" ht="21" thickBot="1">
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+    </row>
+    <row r="5" spans="1:12" ht="17.5" thickBot="1">
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" thickBot="1">
       <c r="A6" s="48">
         <v>0</v>
       </c>
@@ -14237,35 +14244,35 @@
       <c r="E6" s="50">
         <v>4</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-    </row>
-    <row r="7" spans="1:12" ht="29" thickTop="1" thickBot="1">
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+    </row>
+    <row r="7" spans="1:12" ht="24" thickTop="1" thickBot="1">
       <c r="A7" s="49"/>
       <c r="B7" s="49"/>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
       <c r="E7" s="51"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-    </row>
-    <row r="8" spans="1:12" ht="18" thickBot="1">
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-    </row>
-    <row r="9" spans="1:12" ht="21" thickBot="1">
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+    </row>
+    <row r="8" spans="1:12" ht="17.5" thickBot="1">
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+    </row>
+    <row r="9" spans="1:12" ht="18" thickBot="1">
       <c r="A9" s="48">
         <v>0</v>
       </c>
@@ -14281,35 +14288,35 @@
       <c r="E9" s="50">
         <v>4</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-    </row>
-    <row r="10" spans="1:12" ht="29" thickTop="1" thickBot="1">
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+    </row>
+    <row r="10" spans="1:12" ht="24" thickTop="1" thickBot="1">
       <c r="A10" s="49"/>
       <c r="B10" s="49"/>
       <c r="C10" s="49"/>
       <c r="D10" s="51"/>
       <c r="E10" s="51"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-    </row>
-    <row r="11" spans="1:12" ht="18" thickBot="1">
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-    </row>
-    <row r="12" spans="1:12" ht="21" thickBot="1">
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+    </row>
+    <row r="11" spans="1:12" ht="17.5" thickBot="1">
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+    </row>
+    <row r="12" spans="1:12" ht="18" thickBot="1">
       <c r="A12" s="48">
         <v>0</v>
       </c>
@@ -14325,35 +14332,35 @@
       <c r="E12" s="50">
         <v>4</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-    </row>
-    <row r="13" spans="1:12" ht="29" thickTop="1" thickBot="1">
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+    </row>
+    <row r="13" spans="1:12" ht="24" thickTop="1" thickBot="1">
       <c r="A13" s="49"/>
       <c r="B13" s="49"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
       <c r="E13" s="51"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-    </row>
-    <row r="14" spans="1:12" ht="18" thickBot="1">
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-    </row>
-    <row r="15" spans="1:12" ht="21" thickBot="1">
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+    </row>
+    <row r="14" spans="1:12" ht="17.5" thickBot="1">
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="80"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" thickBot="1">
       <c r="A15" s="48">
         <v>0</v>
       </c>
@@ -14369,25 +14376,25 @@
       <c r="E15" s="50">
         <v>4</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-    </row>
-    <row r="16" spans="1:12" ht="29" thickTop="1" thickBot="1">
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+    </row>
+    <row r="16" spans="1:12" ht="24" thickTop="1" thickBot="1">
       <c r="A16" s="49"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="81"/>
-      <c r="L16" s="81"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
     </row>
     <row r="17" spans="7:12">
       <c r="G17" s="44"/>
@@ -14411,11 +14418,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="104" workbookViewId="0">
+    <sheetView zoomScale="104" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="6" width="12.6640625" customWidth="1"/>
     <col min="9" max="9" width="3.6640625" customWidth="1"/>
@@ -14424,23 +14431,23 @@
     <col min="15" max="15" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:16" ht="21">
+      <c r="A1" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-    </row>
-    <row r="2" spans="1:16" ht="20">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+    </row>
+    <row r="2" spans="1:16" ht="21">
       <c r="A2" s="45"/>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
@@ -14454,17 +14461,17 @@
       <c r="K2" s="45"/>
       <c r="L2" s="45"/>
     </row>
-    <row r="3" spans="1:16" ht="20">
+    <row r="3" spans="1:16" ht="21">
       <c r="A3" s="45"/>
       <c r="B3" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
       <c r="I3" s="45"/>
@@ -14472,12 +14479,12 @@
       <c r="K3" s="45"/>
       <c r="L3" s="45"/>
     </row>
-    <row r="5" spans="1:16" ht="20">
+    <row r="5" spans="1:16" ht="21">
       <c r="B5" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="20">
+    <row r="6" spans="1:16" ht="21">
       <c r="B6" s="4">
         <v>0</v>
       </c>
@@ -14556,23 +14563,23 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="20">
-      <c r="B10" s="68" t="s">
+    <row r="10" spans="1:16" ht="21">
+      <c r="B10" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68" t="s">
+      <c r="C10" s="76"/>
+      <c r="D10" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-    </row>
-    <row r="12" spans="1:16" ht="20">
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+    </row>
+    <row r="12" spans="1:16" ht="21">
       <c r="B12" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="20">
+    <row r="13" spans="1:16" ht="21">
       <c r="B13" s="4">
         <v>0</v>
       </c>
@@ -14627,28 +14634,28 @@
     <row r="15" spans="1:16" ht="30">
       <c r="H15" s="53"/>
     </row>
-    <row r="16" spans="1:16" ht="20">
+    <row r="16" spans="1:16" ht="21">
       <c r="N16" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="20">
-      <c r="B17" s="68" t="s">
+    <row r="17" spans="2:12" ht="21">
+      <c r="B17" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68" t="s">
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="68"/>
-    </row>
-    <row r="19" spans="2:12" ht="20">
+      <c r="F17" s="76"/>
+    </row>
+    <row r="19" spans="2:12" ht="21">
       <c r="B19" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="20">
+    <row r="20" spans="2:12" ht="21">
       <c r="B20" s="4">
         <v>0</v>
       </c>
@@ -14704,23 +14711,23 @@
       <c r="F22" s="53"/>
       <c r="H22" s="53"/>
     </row>
-    <row r="24" spans="2:12" ht="20">
-      <c r="B24" s="68" t="s">
+    <row r="24" spans="2:12" ht="21">
+      <c r="B24" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="20">
+    <row r="26" spans="2:12" ht="21">
       <c r="B26" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="20">
+    <row r="27" spans="2:12" ht="21">
       <c r="B27" s="4">
         <v>0</v>
       </c>
@@ -14797,428 +14804,428 @@
       <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="20">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:12" ht="21">
+      <c r="A1" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="3" spans="1:12" ht="17" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="81"/>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="79"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -15235,26 +15242,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="5" width="20.6640625" style="60" customWidth="1"/>
     <col min="6" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" thickBot="1"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+    </row>
+    <row r="2" spans="1:5" ht="21.5" thickBot="1"/>
     <row r="3" spans="1:5" ht="104.25" customHeight="1" thickBot="1">
       <c r="A3" s="56" t="s">
         <v>128</v>
@@ -15272,7 +15279,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" thickBot="1">
+    <row r="4" spans="1:5" ht="23" thickBot="1">
       <c r="A4" s="57" t="s">
         <v>132</v>
       </c>
@@ -15289,7 +15296,7 @@
         <v>7.4379999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" thickBot="1">
+    <row r="5" spans="1:5" ht="23" thickBot="1">
       <c r="A5" s="58" t="s">
         <v>134</v>
       </c>
@@ -15306,7 +15313,7 @@
         <v>10.842000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" thickBot="1">
+    <row r="6" spans="1:5" ht="23" thickBot="1">
       <c r="A6" s="59" t="s">
         <v>135</v>
       </c>
@@ -15323,7 +15330,7 @@
         <v>22.893999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" thickBot="1">
+    <row r="7" spans="1:5" ht="23" thickBot="1">
       <c r="A7" s="58" t="s">
         <v>136</v>
       </c>
@@ -15340,7 +15347,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" thickBot="1">
+    <row r="8" spans="1:5" ht="23" thickBot="1">
       <c r="A8" s="58" t="s">
         <v>139</v>
       </c>
@@ -15357,7 +15364,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" thickBot="1">
+    <row r="9" spans="1:5" ht="23" thickBot="1">
       <c r="A9" s="58" t="s">
         <v>140</v>
       </c>
@@ -15374,7 +15381,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22" thickBot="1">
+    <row r="10" spans="1:5" ht="21.5" thickBot="1">
       <c r="A10" s="58" t="s">
         <v>142</v>
       </c>
@@ -15391,7 +15398,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22" thickBot="1">
+    <row r="11" spans="1:5" ht="21.5" thickBot="1">
       <c r="A11" s="58" t="s">
         <v>143</v>
       </c>
@@ -15425,21 +15432,21 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="6" width="15.6640625" style="9" customWidth="1"/>
     <col min="7" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
     </row>
     <row r="4" spans="1:6" ht="38">
       <c r="A4" s="14" t="s">
@@ -15461,7 +15468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="37">
+    <row r="5" spans="1:6" ht="38">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -15481,7 +15488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="37">
+    <row r="6" spans="1:6" ht="38">
       <c r="A6" s="15">
         <v>1</v>
       </c>
@@ -15501,7 +15508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="37">
+    <row r="7" spans="1:6" ht="38">
       <c r="A7" s="15">
         <v>0</v>
       </c>
@@ -15521,7 +15528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="37">
+    <row r="8" spans="1:6" ht="38">
       <c r="A8" s="15">
         <v>0</v>
       </c>
@@ -15555,12 +15562,13 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="4" width="8.83203125" style="26"/>
+    <col min="1" max="1" width="25.1640625" style="26" customWidth="1"/>
+    <col min="2" max="4" width="8.83203125" style="26"/>
     <col min="5" max="5" width="11.83203125" style="26" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="26"/>
     <col min="7" max="7" width="7.33203125" style="26" customWidth="1"/>
@@ -15570,27 +15578,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
     </row>
     <row r="2" spans="1:19" ht="42.5" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -15605,11 +15613,11 @@
       <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:19" ht="27.5" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
       <c r="I4" s="27"/>
       <c r="L4" s="28"/>
     </row>
@@ -15660,7 +15668,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="21" thickBot="1">
+    <row r="6" spans="1:19" ht="21.5" thickBot="1">
       <c r="A6" s="33"/>
       <c r="B6" s="30" t="s">
         <v>64</v>
@@ -15753,7 +15761,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="21" thickBot="1">
+    <row r="10" spans="1:19" ht="21.5" thickBot="1">
       <c r="A10" s="33"/>
       <c r="B10" s="30" t="s">
         <v>68</v>
@@ -15844,7 +15852,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="21" thickBot="1">
+    <row r="14" spans="1:19" ht="21.5" thickBot="1">
       <c r="A14" s="33"/>
       <c r="B14" s="30" t="s">
         <v>72</v>
@@ -15934,7 +15942,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="21" thickBot="1">
+    <row r="18" spans="1:19" ht="21.5" thickBot="1">
       <c r="A18" s="33"/>
       <c r="B18" s="30" t="s">
         <v>75</v>
@@ -15996,7 +16004,7 @@
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="4" width="8.83203125" style="26"/>
     <col min="5" max="5" width="11.83203125" style="26" customWidth="1"/>
@@ -16008,27 +16016,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
     </row>
     <row r="2" spans="1:19" ht="42.5" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -16036,11 +16044,11 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="30">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
       <c r="F3" s="30"/>
@@ -16073,10 +16081,10 @@
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30"/>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="74"/>
       <c r="H5" s="39" t="s">
         <v>94</v>
       </c>
@@ -16114,7 +16122,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="21" thickBot="1">
+    <row r="6" spans="1:19" ht="21.5" thickBot="1">
       <c r="H6" s="42" t="s">
         <v>30</v>
       </c>
@@ -16130,34 +16138,34 @@
       <c r="R6" s="35"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="74" t="s">
+      <c r="K7" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="74" t="s">
+      <c r="L7" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="M7" s="75" t="s">
+      <c r="M7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="75" t="s">
+      <c r="N7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="O7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="75" t="s">
+      <c r="P7" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="75" t="s">
+      <c r="Q7" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="76" t="s">
+      <c r="R7" s="65" t="s">
         <v>41</v>
       </c>
       <c r="S7" s="41" t="s">
@@ -16219,7 +16227,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="21" thickBot="1">
+    <row r="10" spans="1:19" ht="21.5" thickBot="1">
       <c r="H10" s="42" t="s">
         <v>30</v>
       </c>
@@ -16235,31 +16243,31 @@
       <c r="R10" s="35"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="K11" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="74" t="s">
+      <c r="L11" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="75" t="s">
+      <c r="M11" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="75" t="s">
+      <c r="N11" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="75" t="s">
+      <c r="O11" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="P11" s="77" t="s">
+      <c r="P11" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="Q11" s="75" t="s">
+      <c r="Q11" s="64" t="s">
         <v>41</v>
       </c>
       <c r="R11" s="18" t="s">
@@ -16324,7 +16332,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="21" thickBot="1">
+    <row r="14" spans="1:19" ht="21.5" thickBot="1">
       <c r="H14" s="42" t="s">
         <v>30</v>
       </c>
@@ -16340,31 +16348,31 @@
       <c r="R14" s="35"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="74" t="s">
+      <c r="J15" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="74" t="s">
+      <c r="K15" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="74" t="s">
+      <c r="L15" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="75" t="s">
+      <c r="M15" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N15" s="75" t="s">
+      <c r="N15" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="77" t="s">
+      <c r="O15" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="75" t="s">
+      <c r="P15" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="75" t="s">
+      <c r="Q15" s="64" t="s">
         <v>41</v>
       </c>
       <c r="R15" s="18" t="s">
@@ -16417,7 +16425,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="21" thickBot="1">
+    <row r="19" spans="2:19" ht="21.5" thickBot="1">
       <c r="H19" s="42" t="s">
         <v>30</v>
       </c>
@@ -16433,31 +16441,31 @@
       <c r="R19" s="35"/>
     </row>
     <row r="20" spans="2:19">
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="J20" s="74" t="s">
+      <c r="J20" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="K20" s="74" t="s">
+      <c r="K20" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="L20" s="74" t="s">
+      <c r="L20" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="77" t="s">
+      <c r="N20" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="O20" s="75" t="s">
+      <c r="O20" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="P20" s="75" t="s">
+      <c r="P20" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="Q20" s="75" t="s">
+      <c r="Q20" s="64" t="s">
         <v>41</v>
       </c>
       <c r="R20" s="18" t="s">
@@ -16487,7 +16495,7 @@
       <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="4" width="8.83203125" style="26"/>
     <col min="5" max="5" width="11.83203125" style="26" customWidth="1"/>
@@ -16499,27 +16507,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
     </row>
     <row r="2" spans="1:21" ht="42.5" customHeight="1">
       <c r="A2" s="27" t="s">
@@ -16527,11 +16535,11 @@
       </c>
     </row>
     <row r="3" spans="1:21" ht="30">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="4" spans="1:21">
       <c r="B4" s="26" t="s">
@@ -16576,7 +16584,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="21" thickBot="1">
+    <row r="6" spans="1:21" ht="21.5" thickBot="1">
       <c r="H6" s="42" t="s">
         <v>32</v>
       </c>
@@ -16690,7 +16698,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="21" thickBot="1">
+    <row r="10" spans="1:21" ht="21.5" thickBot="1">
       <c r="H10" s="42" t="s">
         <v>32</v>
       </c>
@@ -16803,7 +16811,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="21" thickBot="1">
+    <row r="14" spans="1:21" ht="21.5" thickBot="1">
       <c r="H14" s="42" t="s">
         <v>32</v>
       </c>
@@ -16918,7 +16926,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="2:19" ht="21" thickBot="1">
+    <row r="19" spans="2:19" ht="21.5" thickBot="1">
       <c r="H19" s="42" t="s">
         <v>32</v>
       </c>
@@ -17004,10 +17012,10 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="9" width="3.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.5" style="1" customWidth="1"/>
@@ -17020,33 +17028,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="30"/>
@@ -17060,12 +17068,12 @@
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
-      <c r="L2" s="78" t="s">
-        <v>44</v>
+      <c r="L2" s="67" t="s">
+        <v>43</v>
       </c>
       <c r="M2" s="30"/>
-      <c r="N2" s="78" t="s">
-        <v>43</v>
+      <c r="N2" s="67" t="s">
+        <v>86</v>
       </c>
       <c r="O2" s="30"/>
       <c r="P2" s="30"/>
@@ -17100,11 +17108,11 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
       <c r="L4" s="17" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="M4" s="30"/>
       <c r="N4" s="17" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
@@ -17159,7 +17167,7 @@
       <c r="X5" s="36"/>
       <c r="Y5" s="36"/>
     </row>
-    <row r="6" spans="1:25" ht="21" thickBot="1">
+    <row r="6" spans="1:25" ht="21.5" thickBot="1">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="22" t="s">
@@ -17236,11 +17244,11 @@
       <c r="J8" s="30"/>
       <c r="K8" s="30"/>
       <c r="L8" s="17" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="M8" s="30"/>
       <c r="N8" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
@@ -17293,7 +17301,7 @@
       <c r="X9" s="36"/>
       <c r="Y9" s="36"/>
     </row>
-    <row r="10" spans="1:25" ht="21" thickBot="1">
+    <row r="10" spans="1:25" ht="21.5" thickBot="1">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="22" t="s">
@@ -17377,11 +17385,11 @@
       <c r="J12" s="30"/>
       <c r="K12" s="30"/>
       <c r="L12" s="17" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="M12" s="30"/>
       <c r="N12" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
@@ -17434,7 +17442,7 @@
       <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
     </row>
-    <row r="14" spans="1:25" ht="21" thickBot="1">
+    <row r="14" spans="1:25" ht="21.5" thickBot="1">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="22" t="s">
@@ -17517,11 +17525,11 @@
       <c r="I16" s="30"/>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
-      <c r="L16" s="78" t="s">
+      <c r="L16" s="67" t="s">
         <v>43</v>
       </c>
       <c r="M16" s="30"/>
-      <c r="N16" s="78" t="s">
+      <c r="N16" s="67" t="s">
         <v>44</v>
       </c>
       <c r="O16" s="30"/>
@@ -17576,7 +17584,7 @@
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="1"/>
     <col min="2" max="17" width="5.6640625" style="1" customWidth="1"/>
@@ -17584,28 +17592,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="7" t="s">
@@ -17637,7 +17645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="22">
+    <row r="9" spans="1:20" ht="22.5">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -17660,38 +17668,38 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="51" width="5.6640625" style="1" customWidth="1"/>
     <col min="52" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
+      <c r="Q1" s="75"/>
+      <c r="R1" s="75"/>
+      <c r="S1" s="75"/>
+      <c r="T1" s="75"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="1" t="s">
@@ -18157,11 +18165,11 @@
       <c r="K13" s="10">
         <v>5</v>
       </c>
-      <c r="S13" s="68" t="s">
+      <c r="S13" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
       <c r="V13" s="11">
         <v>4</v>
       </c>
@@ -18244,30 +18252,30 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="14" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:14" ht="21">
+      <c r="A1" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-    </row>
-    <row r="3" spans="1:14" ht="20">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+    </row>
+    <row r="3" spans="1:14" ht="21">
       <c r="B3" s="5">
         <v>0</v>
       </c>
@@ -18299,7 +18307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="20">
+    <row r="4" spans="1:14" ht="21">
       <c r="B4" s="2">
         <v>22</v>
       </c>
@@ -18332,18 +18340,18 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-    </row>
-    <row r="8" spans="1:14" ht="20">
-      <c r="G8" s="70" t="s">
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+    </row>
+    <row r="8" spans="1:14" ht="21">
+      <c r="G8" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="70"/>
+      <c r="H8" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="3">
